--- a/data/trans_dic/P1002-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,56</t>
+          <t>2,71; 5,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 12,27</t>
+          <t>4,56; 8,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 13,2</t>
+          <t>4,37; 7,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 12,04</t>
+          <t>3,76; 7,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 11,46</t>
+          <t>3,7; 7,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 20,78</t>
+          <t>11,96; 17,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 19,98</t>
+          <t>9,04; 14,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 14,02</t>
+          <t>7,81; 11,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,73</t>
+          <t>3,57; 5,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,47</t>
+          <t>9,16; 12,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 14,11</t>
+          <t>7,24; 10,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,01</t>
+          <t>6,39; 8,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,83</t>
+          <t>3,97; 6,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,82</t>
+          <t>5,81; 9,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,05</t>
+          <t>2,79; 5,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,03</t>
+          <t>2,01; 6,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,94</t>
+          <t>5,66; 9,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 18,1</t>
+          <t>12,44; 16,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 14,11</t>
+          <t>8,62; 12,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,96</t>
+          <t>8,55; 11,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,81</t>
+          <t>5,18; 7,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 12,66</t>
+          <t>9,54; 12,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,25</t>
+          <t>6,18; 8,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,43</t>
+          <t>4,41; 8,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>8,14%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,88</t>
+          <t>4,59; 8,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,15</t>
+          <t>4,2; 7,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,2</t>
+          <t>3,34; 6,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,78</t>
+          <t>5,88; 10,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,13</t>
+          <t>9,95; 14,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 16,94</t>
+          <t>10,74; 15,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,61</t>
+          <t>9,19; 13,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,04</t>
+          <t>4,63; 11,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 7,4</t>
+          <t>7,86; 10,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 12,33</t>
+          <t>8,02; 11,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,62</t>
+          <t>6,73; 9,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 9,01</t>
+          <t>5,36; 9,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>11,3%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10,1%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>8,54%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,51</t>
+          <t>4,0; 7,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,96</t>
+          <t>5,36; 8,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,9</t>
+          <t>5,19; 8,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,49</t>
+          <t>4,07; 6,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,8</t>
+          <t>7,65; 11,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 15,64</t>
+          <t>11,53; 15,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,92</t>
+          <t>8,09; 11,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 12,67</t>
+          <t>8,99; 13,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 10,94</t>
+          <t>6,32; 8,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,06</t>
+          <t>8,97; 11,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 9,61</t>
+          <t>7,17; 9,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,85</t>
+          <t>7,29; 9,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,0</t>
+          <t>4,53; 6,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,92</t>
+          <t>5,94; 7,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,79</t>
+          <t>4,66; 6,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,85</t>
+          <t>4,29; 6,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,22</t>
+          <t>7,59; 9,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,53; 15,87</t>
+          <t>12,89; 15,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,98</t>
+          <t>9,53; 11,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,63</t>
+          <t>8,18; 11,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,71</t>
+          <t>6,28; 7,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 11,87</t>
+          <t>9,71; 11,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,71</t>
+          <t>7,42; 8,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 10,37</t>
+          <t>6,69; 8,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,2%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,34%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,89%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,49%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>10,67%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>10,78%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,87%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>8,06%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>8,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,53; 6,07</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 7,73</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,66; 6,21</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 6,8</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7,59; 9,47</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12,89; 15,13</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>9,53; 11,84</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>9,59; 11,84</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 7,57</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 11,18</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 8,75</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 9,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1002-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,46</t>
+          <t>2,58; 5,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,76</t>
+          <t>4,65; 8,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,95</t>
+          <t>4,32; 8,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,29</t>
+          <t>3,84; 7,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,07</t>
+          <t>3,71; 6,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,96; 17,48</t>
+          <t>12,3; 17,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 14,04</t>
+          <t>8,82; 13,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 11,33</t>
+          <t>8,03; 11,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 5,72</t>
+          <t>3,59; 5,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 12,45</t>
+          <t>9,06; 12,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,39</t>
+          <t>7,22; 10,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,73</t>
+          <t>6,32; 8,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,88</t>
+          <t>3,8; 6,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,15</t>
+          <t>5,87; 9,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,2</t>
+          <t>2,87; 5,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,0</t>
+          <t>2,23; 6,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,13</t>
+          <t>5,62; 9,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 16,94</t>
+          <t>12,28; 16,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,61</t>
+          <t>8,81; 12,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 11,93</t>
+          <t>8,78; 11,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 7,4</t>
+          <t>5,26; 7,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,54; 12,33</t>
+          <t>9,58; 12,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,62</t>
+          <t>6,18; 8,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,31</t>
+          <t>4,68; 8,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,51</t>
+          <t>4,59; 8,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,96</t>
+          <t>4,0; 7,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,9</t>
+          <t>3,43; 6,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 10,32</t>
+          <t>5,68; 10,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,8</t>
+          <t>9,94; 14,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,74; 15,64</t>
+          <t>10,74; 15,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,92</t>
+          <t>9,25; 13,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,71</t>
+          <t>4,39; 11,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 10,94</t>
+          <t>7,87; 10,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,06</t>
+          <t>7,91; 11,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 9,61</t>
+          <t>6,73; 9,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,99</t>
+          <t>5,53; 10,05</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,0</t>
+          <t>4,04; 7,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,92</t>
+          <t>5,35; 9,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,79</t>
+          <t>5,12; 8,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,9</t>
+          <t>3,95; 6,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,22</t>
+          <t>7,4; 11,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 15,87</t>
+          <t>11,39; 15,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,98</t>
+          <t>7,98; 11,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 13,27</t>
+          <t>9,21; 13,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,71</t>
+          <t>6,26; 8,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,97; 11,87</t>
+          <t>8,91; 11,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,71</t>
+          <t>7,07; 9,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 9,75</t>
+          <t>7,21; 9,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,07</t>
+          <t>4,47; 6,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,73</t>
+          <t>5,91; 7,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,21</t>
+          <t>4,64; 6,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,42</t>
+          <t>4,16; 6,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 9,47</t>
+          <t>7,49; 9,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 15,13</t>
+          <t>12,88; 15,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,53; 11,84</t>
+          <t>9,62; 11,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,18; 11,04</t>
+          <t>8,13; 11,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,57</t>
+          <t>6,26; 7,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,18</t>
+          <t>9,66; 11,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 8,75</t>
+          <t>7,38; 8,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 8,58</t>
+          <t>6,71; 8,55</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de hacer algunas tareas por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>26867</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45681</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40725</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33516</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35644</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>102966</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>76094</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64137</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>62512</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>148647</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>116819</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>97653</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17876; 38086</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32729; 59711</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29177; 54576</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24415; 46051</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25563; 46795</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>85731; 124592</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>59357; 93575</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>54190; 76277</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>49568; 77516</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>126906; 175547</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>97366; 138725</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>82861; 115381</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50494</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74959</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39970</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51141</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>70659</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>150255</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>111023</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98373</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>121154</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>225215</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>150992</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>149514</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36517; 65961</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59682; 94437</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29305; 53414</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26616; 72103</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>54466; 88200</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>126718; 172464</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>91884; 131972</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>84043; 114358</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>101520; 143977</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>196397; 253460</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>127623; 178472</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100731; 177459</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43157</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>43270</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37249</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54414</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83624</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>101091</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>88679</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>78934</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>126781</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>144361</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>125929</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>133348</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31140; 59141</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30318; 60151</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26062; 53095</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>40013; 71172</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>67989; 102278</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>83359; 122349</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>72641; 109159</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40984; 107936</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>107150; 149605</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>121265; 168659</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>103983; 149291</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>90511; 164613</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>50015</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>66675</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>63463</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>48763</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>96881</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>141898</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>102316</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>123713</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>146896</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>208573</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>165780</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>172476</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38099; 66538</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>50636; 85482</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47997; 79279</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36587; 62779</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>76846; 115211</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>119683; 165108</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>83289; 124750</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>100824; 145848</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>123941; 170968</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>178012; 235393</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>139989; 192220</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>145633; 199568</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>170534</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>230586</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>181408</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>187834</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>286809</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>496210</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>378113</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>365157</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>457343</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>726796</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>559521</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>552991</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>146413; 197135</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>202429; 265576</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>157335; 209501</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>143983; 218652</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>253234; 321680</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>458056; 540116</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>341007; 415129</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>297598; 405500</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>416591; 501248</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>674567; 780114</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>512014; 603749</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>477718; 608844</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>